--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoxingxiao/个人/代码/前端/bootstrap/bootstraps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doujingjing/个人/bootstraps/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="Public_design" sheetId="2" r:id="rId2"/>
+    <sheet name="Theme" sheetId="3" r:id="rId3"/>
+    <sheet name="Require" sheetId="4" r:id="rId4"/>
+    <sheet name="Custom_design" sheetId="5" r:id="rId5"/>
+    <sheet name="Like_op" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>uid</t>
   </si>
@@ -84,24 +89,253 @@
   </si>
   <si>
     <t>✔️</t>
+  </si>
+  <si>
+    <t>用户 ID</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>you xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开作品 ID</t>
+    <rPh sb="0" eb="1">
+      <t>gong kai zuo pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开作品名</t>
+    <rPh sb="0" eb="1">
+      <t>gong kai zuo p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题ID</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <rPh sb="0" eb="1">
+      <t>dian zan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <rPh sb="0" eb="1">
+      <t>fa bu shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品图像（URL）</t>
+    <rPh sb="0" eb="1">
+      <t>zuo pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名</t>
+    <rPh sb="0" eb="1">
+      <t>zhu t</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像（URL）</t>
+    <rPh sb="0" eb="1">
+      <t>tu xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求 ID</t>
+    <rPh sb="0" eb="1">
+      <t>xu qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <rPh sb="0" eb="1">
+      <t>yu suan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 需求描述</t>
+    <rPh sb="1" eb="2">
+      <t>xu qiu miao shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求作品ID</t>
+    <rPh sb="0" eb="1">
+      <t>xu qiu zuo pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 作品描述</t>
+    <rPh sb="1" eb="2">
+      <t>zuo pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID（author）</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品ID</t>
+    <rPh sb="0" eb="1">
+      <t>zuo pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -408,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,7 +654,7 @@
     <col min="4" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -437,50 +671,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -503,6 +752,570 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>uid</t>
   </si>
@@ -318,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,6 +335,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,15 +373,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1251,7 +1271,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,10 +1309,9 @@
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1305,7 +1324,9 @@
         <v>55</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/数据库设计表.xlsx
+++ b/数据库设计表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>uid</t>
   </si>
@@ -311,6 +311,10 @@
     <rPh sb="0" eb="1">
       <t>zuo pin</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +786,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +902,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -1152,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1270,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
